--- a/hardware/Aaron Part List.xlsx
+++ b/hardware/Aaron Part List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rhian\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rhian\source\Aaron-Robot\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87609C5-D2C4-4B9C-8D7C-85E6F63BDD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0399724C-2909-4B1A-B601-748052F665E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{55B075A3-7C5D-48F4-BB65-04BCD371373F}"/>
+    <workbookView xWindow="3690" yWindow="3050" windowWidth="16920" windowHeight="11390" xr2:uid="{55B075A3-7C5D-48F4-BB65-04BCD371373F}"/>
   </bookViews>
   <sheets>
     <sheet name="Mechanical" sheetId="1" r:id="rId1"/>
@@ -189,10 +189,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6D47C9-7D44-40DD-B585-15A7281A8545}">
   <dimension ref="B1:Q16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -519,71 +519,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -593,18 +593,21 @@
       </c>
       <c r="C3">
         <f>SUM(E3:I3) + J3*2 + K3*2 + L3*2 + M3*2 + N3*2 + O3*2 + P3*2 + Q3*2</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
       <c r="H3">
         <v>4</v>
       </c>
       <c r="I3">
-        <v>4</v>
-      </c>
-      <c r="J3">
         <v>4</v>
       </c>
     </row>
@@ -632,6 +635,9 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J5">
         <v>4</v>
       </c>
       <c r="O5">
@@ -710,13 +716,19 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>31</v>
       </c>
       <c r="E10">
         <v>4</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -734,10 +746,16 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
       </c>
       <c r="L11">
         <v>4</v>
@@ -933,20 +951,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C4EDF8-2A31-4933-9153-280CEBF4CDAF}">
   <dimension ref="B2:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
     </row>

--- a/hardware/Aaron Part List.xlsx
+++ b/hardware/Aaron Part List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rhian\source\Aaron-Robot\hardware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharelab\source\Aaron-Robot\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0399724C-2909-4B1A-B601-748052F665E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAC42AA-C76D-4EDF-A559-3CD8EC9AB9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="3050" windowWidth="16920" windowHeight="11390" xr2:uid="{55B075A3-7C5D-48F4-BB65-04BCD371373F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{55B075A3-7C5D-48F4-BB65-04BCD371373F}"/>
   </bookViews>
   <sheets>
     <sheet name="Mechanical" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>M3x14</t>
   </si>
@@ -130,9 +141,6 @@
     <t>main servo motor, using the towerpro dimensions</t>
   </si>
   <si>
-    <t>LD-27MG</t>
-  </si>
-  <si>
     <t>Hiwonder servo motor dimensions</t>
   </si>
   <si>
@@ -143,6 +151,15 @@
   </si>
   <si>
     <t>Relay</t>
+  </si>
+  <si>
+    <t>M3x18</t>
+  </si>
+  <si>
+    <t>M3x18 countersunk</t>
+  </si>
+  <si>
+    <t>LD-27MG (Or LD-20MG)</t>
   </si>
 </sst>
 </file>
@@ -507,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6D47C9-7D44-40DD-B585-15A7281A8545}">
-  <dimension ref="B1:Q16"/>
+  <dimension ref="B1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -575,7 +592,7 @@
         <v>27</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>28</v>
@@ -593,22 +610,7 @@
       </c>
       <c r="C3">
         <f>SUM(E3:I3) + J3*2 + K3*2 + L3*2 + M3*2 + N3*2 + O3*2 + P3*2 + Q3*2</f>
-        <v>16</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-      <c r="I3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.35">
@@ -616,13 +618,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C16" si="0">SUM(E4:I4) + J4*2 + K4*2 + L4*2 + M4*2 + N4*2 + O4*2 + P4*2 + Q4*2</f>
-        <v>12</v>
+        <f t="shared" ref="C4:C18" si="0">SUM(E4:I4) + J4*2 + K4*2 + L4*2 + M4*2 + N4*2 + O4*2 + P4*2 + Q4*2</f>
+        <v>8</v>
       </c>
       <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4">
@@ -635,42 +634,54 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J5">
         <v>4</v>
       </c>
       <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -682,58 +693,22 @@
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="J9">
         <v>4</v>
       </c>
       <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>2</v>
-      </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-      <c r="O9">
-        <v>2</v>
-      </c>
-      <c r="P9">
-        <v>2</v>
-      </c>
-      <c r="Q9">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>4</v>
-      </c>
-      <c r="I10">
         <v>4</v>
       </c>
       <c r="L10">
@@ -742,106 +717,88 @@
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11">
-        <v>4</v>
-      </c>
-      <c r="G11">
-        <v>4</v>
+        <v>28</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>4</v>
-      </c>
-      <c r="J12">
-        <v>4</v>
-      </c>
-      <c r="K12">
-        <v>4</v>
-      </c>
-      <c r="M12">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
       </c>
       <c r="O12">
-        <v>4</v>
-      </c>
-      <c r="P12">
-        <v>4</v>
-      </c>
-      <c r="Q12">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13">
-        <v>4</v>
-      </c>
-      <c r="H13">
-        <v>4</v>
-      </c>
-      <c r="I13">
-        <v>4</v>
-      </c>
-      <c r="J13">
-        <v>4</v>
-      </c>
-      <c r="K13">
-        <v>4</v>
-      </c>
-      <c r="M13">
-        <v>4</v>
-      </c>
-      <c r="O13">
-        <v>4</v>
-      </c>
-      <c r="P13">
-        <v>4</v>
-      </c>
-      <c r="Q13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="L13">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -880,61 +837,139 @@
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="M16">
+        <v>4</v>
+      </c>
+      <c r="O16">
+        <v>4</v>
+      </c>
+      <c r="P16">
+        <v>4</v>
+      </c>
+      <c r="Q16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
         <v>34</v>
       </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
         <v>1</v>
       </c>
     </row>
@@ -970,13 +1005,13 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/hardware/Aaron Part List.xlsx
+++ b/hardware/Aaron Part List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharelab\source\Aaron-Robot\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAC42AA-C76D-4EDF-A559-3CD8EC9AB9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0195B4CF-0F9A-4BD5-8414-0C6B5A47F636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{55B075A3-7C5D-48F4-BB65-04BCD371373F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>M3x14</t>
   </si>
@@ -63,9 +63,6 @@
     <t>M1.6 hex nut</t>
   </si>
   <si>
-    <t>M2x8 self-tapping pan head</t>
-  </si>
-  <si>
     <t>M3 square nut</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>M3x16 countersunk</t>
   </si>
   <si>
-    <t>could probably use them for all of the motor horns if you really wanted</t>
-  </si>
-  <si>
     <t>motor horn</t>
   </si>
   <si>
@@ -111,12 +105,6 @@
     <t>Torso Bow</t>
   </si>
   <si>
-    <t>Chest Shoulder</t>
-  </si>
-  <si>
-    <t>Shoulder</t>
-  </si>
-  <si>
     <t>Arm Twist</t>
   </si>
   <si>
@@ -160,6 +148,27 @@
   </si>
   <si>
     <t>LD-27MG (Or LD-20MG)</t>
+  </si>
+  <si>
+    <t>M2x6 self-tapping pan head w/ washer</t>
+  </si>
+  <si>
+    <t>M2x8 self-tapping pan head w/ washer</t>
+  </si>
+  <si>
+    <t>M1.6x6</t>
+  </si>
+  <si>
+    <t>Shoulder Pitch</t>
+  </si>
+  <si>
+    <t>Shoulder Roll</t>
+  </si>
+  <si>
+    <t>We could probably use these anywhere we use the M1.6 screws, but we do need them for the ankle</t>
+  </si>
+  <si>
+    <t>Specifically for the arm twist, and if we do all self-tapping, we'd use these for the shoulder pitch too</t>
   </si>
 </sst>
 </file>
@@ -524,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6D47C9-7D44-40DD-B585-15A7281A8545}">
-  <dimension ref="B1:Q18"/>
+  <dimension ref="B1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -537,14 +546,14 @@
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.35">
       <c r="E1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -556,52 +565,52 @@
     </row>
     <row r="2" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="N2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="Q2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.35">
@@ -615,13 +624,16 @@
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C18" si="0">SUM(E4:I4) + J4*2 + K4*2 + L4*2 + M4*2 + N4*2 + O4*2 + P4*2 + Q4*2</f>
-        <v>8</v>
+        <f t="shared" ref="C4:C20" si="0">SUM(E4:I4) + J4*2 + K4*2 + L4*2 + M4*2 + N4*2 + O4*2 + P4*2 + Q4*2</f>
+        <v>12</v>
       </c>
       <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4">
@@ -634,21 +646,18 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J5">
         <v>4</v>
       </c>
       <c r="O5">
-        <v>2</v>
-      </c>
-      <c r="P5">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -657,7 +666,7 @@
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -717,7 +726,7 @@
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -744,14 +753,14 @@
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -777,87 +786,57 @@
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
-      <c r="G13">
-        <v>4</v>
-      </c>
-      <c r="L13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
       <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14">
-        <v>4</v>
-      </c>
-      <c r="H14">
-        <v>4</v>
-      </c>
-      <c r="I14">
-        <v>4</v>
-      </c>
-      <c r="J14">
-        <v>4</v>
-      </c>
-      <c r="K14">
-        <v>4</v>
-      </c>
-      <c r="M14">
-        <v>4</v>
-      </c>
-      <c r="O14">
-        <v>4</v>
-      </c>
-      <c r="P14">
-        <v>4</v>
-      </c>
-      <c r="Q14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="E15">
         <v>4</v>
       </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
       <c r="H15">
         <v>4</v>
       </c>
       <c r="I15">
         <v>4</v>
       </c>
-      <c r="J15">
-        <v>4</v>
-      </c>
       <c r="K15">
         <v>4</v>
       </c>
@@ -868,108 +847,159 @@
         <v>4</v>
       </c>
       <c r="P15">
-        <v>4</v>
-      </c>
-      <c r="Q15">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-      <c r="H16">
-        <v>4</v>
-      </c>
-      <c r="I16">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J16">
-        <v>4</v>
-      </c>
-      <c r="K16">
-        <v>4</v>
-      </c>
-      <c r="M16">
-        <v>4</v>
-      </c>
-      <c r="O16">
-        <v>4</v>
-      </c>
-      <c r="P16">
-        <v>4</v>
-      </c>
-      <c r="Q16">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>11</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+      <c r="O18">
+        <v>4</v>
+      </c>
+      <c r="P18">
+        <v>4</v>
+      </c>
+      <c r="Q18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
         <v>1</v>
       </c>
     </row>
@@ -994,24 +1024,24 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/hardware/Aaron Part List.xlsx
+++ b/hardware/Aaron Part List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharelab\source\Aaron-Robot\hardware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rhian\source\Aaron-Robot\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0195B4CF-0F9A-4BD5-8414-0C6B5A47F636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCF92AF-A40E-4B93-ABD7-95414645228C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{55B075A3-7C5D-48F4-BB65-04BCD371373F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{55B075A3-7C5D-48F4-BB65-04BCD371373F}"/>
   </bookViews>
   <sheets>
     <sheet name="Mechanical" sheetId="1" r:id="rId1"/>
@@ -21,26 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
-  <si>
-    <t>M3x14</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
   <si>
     <t>M3x16</t>
   </si>
@@ -147,9 +133,6 @@
     <t>M3x18 countersunk</t>
   </si>
   <si>
-    <t>LD-27MG (Or LD-20MG)</t>
-  </si>
-  <si>
     <t>M2x6 self-tapping pan head w/ washer</t>
   </si>
   <si>
@@ -169,6 +152,78 @@
   </si>
   <si>
     <t>Specifically for the arm twist, and if we do all self-tapping, we'd use these for the shoulder pitch too</t>
+  </si>
+  <si>
+    <t>M3x14 countersunk</t>
+  </si>
+  <si>
+    <t>LED Eye</t>
+  </si>
+  <si>
+    <t>Camera pan</t>
+  </si>
+  <si>
+    <t>LD-20MG</t>
+  </si>
+  <si>
+    <t>Arduino Uno</t>
+  </si>
+  <si>
+    <t>Adafruit 815</t>
+  </si>
+  <si>
+    <t>Adafruit servo driver board, 16 channel pwm board</t>
+  </si>
+  <si>
+    <t>BC547CBU</t>
+  </si>
+  <si>
+    <t>NPN 45V 0.1A transistor for relay flyback</t>
+  </si>
+  <si>
+    <t>RKEF075-2</t>
+  </si>
+  <si>
+    <t>PTC RESET FUSE 60V 750MA RADIAL</t>
+  </si>
+  <si>
+    <t>15SQ100</t>
+  </si>
+  <si>
+    <t>DIODE SCHOTTKY 100V 15A R-6</t>
+  </si>
+  <si>
+    <t>1N4001-G</t>
+  </si>
+  <si>
+    <t>DIODE GEN PURP 50V 1A DO41</t>
+  </si>
+  <si>
+    <t>DIODE ZENER 4.7V 1W DO41</t>
+  </si>
+  <si>
+    <t>1N4732A</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>microcontroller</t>
+  </si>
+  <si>
+    <t>pwm driver</t>
+  </si>
+  <si>
+    <t>transistor</t>
+  </si>
+  <si>
+    <t>fuse</t>
+  </si>
+  <si>
+    <t>diode</t>
+  </si>
+  <si>
+    <t>For each motor group to turn on/off control</t>
   </si>
 </sst>
 </file>
@@ -533,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6D47C9-7D44-40DD-B585-15A7281A8545}">
-  <dimension ref="B1:Q20"/>
+  <dimension ref="B1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -544,16 +599,16 @@
     <col min="2" max="2" width="25.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.35">
       <c r="E1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -563,360 +618,363 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
+        <f>SUM(E3:I3) + J3*2 + K3*2 + L3*2 + M3*2 + N3*2 + O3*2 + P3*2 + Q3*2 +R3*2 +S3</f>
+        <v>4</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C20" si="0">SUM(E4:I4) + J4*2 + K4*2 + L4*2 + M4*2 + N4*2 + O4*2 + P4*2 + Q4*2 +R4*2 +S4</f>
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="D13" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <f>SUM(E3:I3) + J3*2 + K3*2 + L3*2 + M3*2 + N3*2 + O3*2 + P3*2 + Q3*2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ref="C4:C20" si="0">SUM(E4:I4) + J4*2 + K4*2 + L4*2 + M4*2 + N4*2 + O4*2 + P4*2 + Q4*2</f>
-        <v>12</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="P4">
-        <v>2</v>
-      </c>
-      <c r="Q4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="J5">
-        <v>4</v>
-      </c>
-      <c r="O5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="J11">
-        <v>4</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>2</v>
-      </c>
-      <c r="M11">
-        <v>2</v>
-      </c>
-      <c r="P11">
-        <v>2</v>
-      </c>
-      <c r="Q11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>2</v>
-      </c>
-      <c r="O12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>42</v>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
       </c>
       <c r="Q13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:19" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L14">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:19" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+      <c r="P15">
+        <v>4</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="E15">
-        <v>4</v>
-      </c>
-      <c r="F15">
-        <v>4</v>
-      </c>
-      <c r="G15">
-        <v>4</v>
-      </c>
-      <c r="H15">
-        <v>4</v>
-      </c>
-      <c r="I15">
-        <v>4</v>
-      </c>
-      <c r="K15">
-        <v>4</v>
-      </c>
-      <c r="M15">
-        <v>4</v>
-      </c>
-      <c r="O15">
-        <v>4</v>
-      </c>
-      <c r="P15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <v>4</v>
+      </c>
+      <c r="P17">
+        <v>4</v>
+      </c>
+      <c r="Q17">
+        <v>4</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
         <v>5</v>
       </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-      <c r="H17">
-        <v>4</v>
-      </c>
-      <c r="I17">
-        <v>4</v>
-      </c>
-      <c r="J17">
-        <v>4</v>
-      </c>
-      <c r="K17">
-        <v>4</v>
-      </c>
-      <c r="M17">
-        <v>4</v>
-      </c>
-      <c r="O17">
-        <v>4</v>
-      </c>
-      <c r="P17">
-        <v>4</v>
-      </c>
-      <c r="Q17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H18">
         <v>4</v>
@@ -933,68 +991,71 @@
       <c r="M18">
         <v>4</v>
       </c>
-      <c r="O18">
-        <v>4</v>
-      </c>
       <c r="P18">
         <v>4</v>
       </c>
       <c r="Q18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
         <v>28</v>
       </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
         <v>29</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>30</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1014,34 +1075,139 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C4EDF8-2A31-4933-9153-280CEBF4CDAF}">
-  <dimension ref="B2:D3"/>
+  <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="14.26953125" customWidth="1"/>
+    <col min="5" max="5" width="28.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
